--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41717.65024136189</v>
+        <v>8194744.746420633</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41717.65024136189</v>
+        <v>8194744.746420633</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175417.9386649897</v>
+        <v>18631638.7572942</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175417.9386649897</v>
+        <v>18631638.7572942</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1416325663.027153</v>
+        <v>35765160.90362675</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16989.15768124399</v>
+        <v>815289.9037008322</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32657.59907576398</v>
+        <v>1415259.51268538</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48194.71193714759</v>
+        <v>2015229.121669927</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>63887.41690132939</v>
+        <v>2614603.780925828</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79580.12186551117</v>
+        <v>3213978.440181729</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95029.2475837133</v>
+        <v>4071372.151416246</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>109859.0507886105</v>
+        <v>5149578.706832741</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>124302.9517712856</v>
+        <v>6150990.720027015</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>139031.05640173</v>
+        <v>6854566.351216244</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154110.7344762781</v>
+        <v>7637936.70852407</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169235.9591218099</v>
+        <v>8420539.222715672</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184361.290418921</v>
+        <v>9203162.960571565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>199486.621716032</v>
+        <v>9985786.698427461</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>214998.4284741943</v>
+        <v>10477945.24465802</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>230879.2061369667</v>
+        <v>10689574.7810079</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>91</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>460</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>395</v>
